--- a/results/MultiObjBaselines/communityStratifiedFMODGWO_facebook_times_per_iteration.xlsx
+++ b/results/MultiObjBaselines/communityStratifiedFMODGWO_facebook_times_per_iteration.xlsx
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9607944488525391</v>
+        <v>1.206213712692261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9197344779968262</v>
+        <v>1.221713542938232</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9291930198669434</v>
+        <v>1.225337982177734</v>
       </c>
       <c r="C3" t="n">
-        <v>0.911665678024292</v>
+        <v>1.237155675888062</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9327826499938965</v>
+        <v>1.174760103225708</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9004752635955811</v>
+        <v>1.289929628372192</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9418556690216064</v>
+        <v>1.228684186935425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.890249490737915</v>
+        <v>1.31365180015564</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9132766723632812</v>
+        <v>1.243581771850586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.864408016204834</v>
+        <v>1.286355018615723</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9142935276031494</v>
+        <v>1.338194847106934</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9161245822906494</v>
+        <v>1.371413707733154</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9556653499603271</v>
+        <v>1.201956987380981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.861250638961792</v>
+        <v>1.232807159423828</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9296255111694336</v>
+        <v>1.249269723892212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8962790966033936</v>
+        <v>1.311731338500977</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9214186668395996</v>
+        <v>1.194959878921509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9117014408111572</v>
+        <v>1.371776580810547</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9166877269744873</v>
+        <v>1.683007478713989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.896265983581543</v>
+        <v>1.396933317184448</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8912680149078369</v>
+        <v>2.207275152206421</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9055945873260498</v>
+        <v>1.488399505615234</v>
       </c>
     </row>
     <row r="13">
@@ -572,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9117166996002197</v>
+        <v>2.110385656356812</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9024879932403564</v>
+        <v>1.411401271820068</v>
       </c>
     </row>
     <row r="14">
@@ -583,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8947904109954834</v>
+        <v>1.997205495834351</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9038529396057129</v>
+        <v>1.726047515869141</v>
       </c>
     </row>
     <row r="15">
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8793265819549561</v>
+        <v>1.921431064605713</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9164140224456787</v>
+        <v>1.327898502349854</v>
       </c>
     </row>
     <row r="16">
@@ -605,10 +605,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8787450790405273</v>
+        <v>2.010136842727661</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8984580039978027</v>
+        <v>1.347408294677734</v>
       </c>
     </row>
     <row r="17">
@@ -616,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9256331920623779</v>
+        <v>2.112975835800171</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8791818618774414</v>
+        <v>1.277583837509155</v>
       </c>
     </row>
     <row r="18">
@@ -627,10 +627,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8846709728240967</v>
+        <v>2.408973217010498</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8963875770568848</v>
+        <v>1.262682199478149</v>
       </c>
     </row>
     <row r="19">
@@ -638,10 +638,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.915992259979248</v>
+        <v>2.109388113021851</v>
       </c>
       <c r="C19" t="n">
-        <v>0.91005539894104</v>
+        <v>1.341160774230957</v>
       </c>
     </row>
     <row r="20">
@@ -649,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8967239856719971</v>
+        <v>2.317815780639648</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9188950061798096</v>
+        <v>1.228018045425415</v>
       </c>
     </row>
     <row r="21">
@@ -660,10 +660,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9318726062774658</v>
+        <v>2.298454761505127</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8796260356903076</v>
+        <v>1.39694356918335</v>
       </c>
     </row>
     <row r="22">
@@ -671,10 +671,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9055068492889404</v>
+        <v>1.88683557510376</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9059252738952637</v>
+        <v>1.343896389007568</v>
       </c>
     </row>
     <row r="23">
@@ -682,10 +682,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8814172744750977</v>
+        <v>1.930871486663818</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8895375728607178</v>
+        <v>1.366832971572876</v>
       </c>
     </row>
     <row r="24">
@@ -693,10 +693,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9223649501800537</v>
+        <v>1.978965044021606</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9337954521179199</v>
+        <v>1.36043906211853</v>
       </c>
     </row>
     <row r="25">
@@ -704,10 +704,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9312863349914551</v>
+        <v>2.322890520095825</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9148454666137695</v>
+        <v>1.327927589416504</v>
       </c>
     </row>
     <row r="26">
@@ -715,10 +715,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8882031440734863</v>
+        <v>2.064026355743408</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9183192253112793</v>
+        <v>1.297096014022827</v>
       </c>
     </row>
     <row r="27">
@@ -726,10 +726,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9267268180847168</v>
+        <v>2.249465465545654</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9058754444122314</v>
+        <v>1.338603496551514</v>
       </c>
     </row>
     <row r="28">
@@ -737,10 +737,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9462270736694336</v>
+        <v>2.160288572311401</v>
       </c>
       <c r="C28" t="n">
-        <v>0.895939826965332</v>
+        <v>1.164167404174805</v>
       </c>
     </row>
     <row r="29">
@@ -748,10 +748,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9111123085021973</v>
+        <v>1.925158739089966</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9116551876068115</v>
+        <v>1.316523313522339</v>
       </c>
     </row>
     <row r="30">
@@ -759,10 +759,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9506301879882812</v>
+        <v>2.009126901626587</v>
       </c>
       <c r="C30" t="n">
-        <v>0.913963794708252</v>
+        <v>1.239439725875854</v>
       </c>
     </row>
     <row r="31">
@@ -770,10 +770,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8764734268188477</v>
+        <v>1.962769746780396</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9314520359039307</v>
+        <v>1.323158025741577</v>
       </c>
     </row>
     <row r="32">
@@ -781,10 +781,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9165108203887939</v>
+        <v>1.851162672042847</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9358985424041748</v>
+        <v>1.67816424369812</v>
       </c>
     </row>
     <row r="33">
@@ -792,10 +792,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9188563823699951</v>
+        <v>1.938873291015625</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9303970336914062</v>
+        <v>1.270972967147827</v>
       </c>
     </row>
     <row r="34">
@@ -803,10 +803,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8966770172119141</v>
+        <v>2.404989957809448</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9248073101043701</v>
+        <v>1.24795937538147</v>
       </c>
     </row>
     <row r="35">
@@ -814,10 +814,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9298336505889893</v>
+        <v>1.975594043731689</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9383342266082764</v>
+        <v>1.308043479919434</v>
       </c>
     </row>
     <row r="36">
@@ -825,10 +825,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.934887170791626</v>
+        <v>2.050759077072144</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9099011421203613</v>
+        <v>1.309749841690063</v>
       </c>
     </row>
     <row r="37">
@@ -836,10 +836,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.932293176651001</v>
+        <v>2.430785894393921</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9259903430938721</v>
+        <v>1.216354608535767</v>
       </c>
     </row>
     <row r="38">
@@ -847,10 +847,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8955321311950684</v>
+        <v>2.088306427001953</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9144244194030762</v>
+        <v>1.295764923095703</v>
       </c>
     </row>
     <row r="39">
@@ -858,10 +858,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.898639440536499</v>
+        <v>2.097981929779053</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9187276363372803</v>
+        <v>1.207841634750366</v>
       </c>
     </row>
     <row r="40">
@@ -869,10 +869,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9155054092407227</v>
+        <v>2.090103626251221</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9429776668548584</v>
+        <v>1.287878274917603</v>
       </c>
     </row>
     <row r="41">
@@ -880,10 +880,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9243028163909912</v>
+        <v>2.242728233337402</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8981974124908447</v>
+        <v>1.337380170822144</v>
       </c>
     </row>
     <row r="42">
@@ -891,10 +891,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9314119815826416</v>
+        <v>2.285115003585815</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9297242164611816</v>
+        <v>1.276257514953613</v>
       </c>
     </row>
     <row r="43">
@@ -902,10 +902,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9445095062255859</v>
+        <v>2.051761388778687</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8788967132568359</v>
+        <v>1.367522478103638</v>
       </c>
     </row>
     <row r="44">
@@ -913,10 +913,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8744297027587891</v>
+        <v>2.113188505172729</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9192607402801514</v>
+        <v>1.315133094787598</v>
       </c>
     </row>
     <row r="45">
@@ -924,10 +924,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9678168296813965</v>
+        <v>2.323807001113892</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8715665340423584</v>
+        <v>1.347192049026489</v>
       </c>
     </row>
     <row r="46">
@@ -935,10 +935,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9246039390563965</v>
+        <v>2.370439529418945</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9063127040863037</v>
+        <v>1.270328283309937</v>
       </c>
     </row>
     <row r="47">
@@ -946,10 +946,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9397313594818115</v>
+        <v>2.122436285018921</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9034268856048584</v>
+        <v>1.341252326965332</v>
       </c>
     </row>
     <row r="48">
@@ -957,10 +957,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9191069602966309</v>
+        <v>2.000088214874268</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9169478416442871</v>
+        <v>1.254211187362671</v>
       </c>
     </row>
     <row r="49">
@@ -968,10 +968,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8989541530609131</v>
+        <v>1.951402902603149</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8890144824981689</v>
+        <v>1.254668712615967</v>
       </c>
     </row>
     <row r="50">
@@ -979,10 +979,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8951983451843262</v>
+        <v>1.950681686401367</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9336910247802734</v>
+        <v>1.249157428741455</v>
       </c>
     </row>
     <row r="51">
@@ -990,10 +990,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9206326007843018</v>
+        <v>2.080461740493774</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8953919410705566</v>
+        <v>1.3498375415802</v>
       </c>
     </row>
     <row r="52">
@@ -1001,10 +1001,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9544334411621094</v>
+        <v>1.979687452316284</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8984873294830322</v>
+        <v>1.354817152023315</v>
       </c>
     </row>
     <row r="53">
@@ -1012,10 +1012,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9740405082702637</v>
+        <v>2.137488603591919</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9124462604522705</v>
+        <v>1.278059482574463</v>
       </c>
     </row>
     <row r="54">
@@ -1023,10 +1023,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9322607517242432</v>
+        <v>2.464875936508179</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9535868167877197</v>
+        <v>1.317897081375122</v>
       </c>
     </row>
     <row r="55">
@@ -1034,10 +1034,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9307973384857178</v>
+        <v>2.174740076065063</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9355664253234863</v>
+        <v>1.326471567153931</v>
       </c>
     </row>
     <row r="56">
@@ -1045,10 +1045,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9300165176391602</v>
+        <v>2.181264400482178</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9279208183288574</v>
+        <v>1.385588407516479</v>
       </c>
     </row>
     <row r="57">
@@ -1056,10 +1056,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9093353748321533</v>
+        <v>2.03583025932312</v>
       </c>
       <c r="C57" t="n">
-        <v>0.92502760887146</v>
+        <v>1.251723289489746</v>
       </c>
     </row>
     <row r="58">
@@ -1067,10 +1067,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9675743579864502</v>
+        <v>1.830095052719116</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9486408233642578</v>
+        <v>1.276012659072876</v>
       </c>
     </row>
     <row r="59">
@@ -1078,10 +1078,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9388518333435059</v>
+        <v>1.885993957519531</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9722137451171875</v>
+        <v>1.244355201721191</v>
       </c>
     </row>
     <row r="60">
@@ -1089,10 +1089,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9387083053588867</v>
+        <v>2.044150352478027</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9484207630157471</v>
+        <v>1.291967868804932</v>
       </c>
     </row>
     <row r="61">
@@ -1100,10 +1100,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9269797801971436</v>
+        <v>1.822094440460205</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9349863529205322</v>
+        <v>1.498441219329834</v>
       </c>
     </row>
     <row r="62">
@@ -1111,10 +1111,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.033224821090698</v>
+        <v>2.181999444961548</v>
       </c>
       <c r="C62" t="n">
-        <v>1.087355375289917</v>
+        <v>1.445368766784668</v>
       </c>
     </row>
     <row r="63">
@@ -1122,10 +1122,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.03757905960083</v>
+        <v>3.020363807678223</v>
       </c>
       <c r="C63" t="n">
-        <v>1.072710752487183</v>
+        <v>1.515424966812134</v>
       </c>
     </row>
     <row r="64">
@@ -1133,10 +1133,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.04866099357605</v>
+        <v>2.636677265167236</v>
       </c>
       <c r="C64" t="n">
-        <v>1.061933040618896</v>
+        <v>1.43408727645874</v>
       </c>
     </row>
     <row r="65">
@@ -1144,10 +1144,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.080243110656738</v>
+        <v>2.918943166732788</v>
       </c>
       <c r="C65" t="n">
-        <v>1.121225595474243</v>
+        <v>1.456920623779297</v>
       </c>
     </row>
     <row r="66">
@@ -1155,10 +1155,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0804123878479</v>
+        <v>2.1180419921875</v>
       </c>
       <c r="C66" t="n">
-        <v>1.103465557098389</v>
+        <v>1.46933913230896</v>
       </c>
     </row>
     <row r="67">
@@ -1166,10 +1166,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.069831848144531</v>
+        <v>2.230969667434692</v>
       </c>
       <c r="C67" t="n">
-        <v>1.096581697463989</v>
+        <v>1.563906669616699</v>
       </c>
     </row>
     <row r="68">
@@ -1177,10 +1177,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9950318336486816</v>
+        <v>2.215688228607178</v>
       </c>
       <c r="C68" t="n">
-        <v>1.123126745223999</v>
+        <v>1.426231622695923</v>
       </c>
     </row>
     <row r="69">
@@ -1188,10 +1188,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.072410583496094</v>
+        <v>2.119993925094604</v>
       </c>
       <c r="C69" t="n">
-        <v>1.125749111175537</v>
+        <v>1.565327644348145</v>
       </c>
     </row>
     <row r="70">
@@ -1199,10 +1199,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.035347461700439</v>
+        <v>2.164161682128906</v>
       </c>
       <c r="C70" t="n">
-        <v>1.135469198226929</v>
+        <v>1.47932505607605</v>
       </c>
     </row>
     <row r="71">
@@ -1210,10 +1210,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.076917886734009</v>
+        <v>2.634193897247314</v>
       </c>
       <c r="C71" t="n">
-        <v>1.108161449432373</v>
+        <v>1.350953817367554</v>
       </c>
     </row>
     <row r="72">
@@ -1221,10 +1221,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.076553583145142</v>
+        <v>2.501060009002686</v>
       </c>
       <c r="C72" t="n">
-        <v>1.107649326324463</v>
+        <v>1.466269731521606</v>
       </c>
     </row>
     <row r="73">
@@ -1232,10 +1232,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.048720121383667</v>
+        <v>2.021807670593262</v>
       </c>
       <c r="C73" t="n">
-        <v>1.134037017822266</v>
+        <v>1.53402042388916</v>
       </c>
     </row>
     <row r="74">
@@ -1243,10 +1243,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.064821720123291</v>
+        <v>2.623756885528564</v>
       </c>
       <c r="C74" t="n">
-        <v>1.150741100311279</v>
+        <v>1.456422805786133</v>
       </c>
     </row>
     <row r="75">
@@ -1254,10 +1254,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.083770751953125</v>
+        <v>2.553224086761475</v>
       </c>
       <c r="C75" t="n">
-        <v>1.118773937225342</v>
+        <v>1.541894197463989</v>
       </c>
     </row>
     <row r="76">
@@ -1265,10 +1265,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.111180543899536</v>
+        <v>2.46577787399292</v>
       </c>
       <c r="C76" t="n">
-        <v>1.123126745223999</v>
+        <v>1.468681573867798</v>
       </c>
     </row>
     <row r="77">
@@ -1276,10 +1276,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.091327905654907</v>
+        <v>2.385945320129395</v>
       </c>
       <c r="C77" t="n">
-        <v>1.083333015441895</v>
+        <v>1.708027124404907</v>
       </c>
     </row>
     <row r="78">
@@ -1287,10 +1287,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.117734432220459</v>
+        <v>3.416501760482788</v>
       </c>
       <c r="C78" t="n">
-        <v>1.080472469329834</v>
+        <v>1.443432331085205</v>
       </c>
     </row>
     <row r="79">
@@ -1298,10 +1298,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.099621534347534</v>
+        <v>3.187193870544434</v>
       </c>
       <c r="C79" t="n">
-        <v>1.089203119277954</v>
+        <v>2.090214490890503</v>
       </c>
     </row>
     <row r="80">
@@ -1309,10 +1309,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.157275438308716</v>
+        <v>3.522033452987671</v>
       </c>
       <c r="C80" t="n">
-        <v>1.124445915222168</v>
+        <v>1.767322540283203</v>
       </c>
     </row>
     <row r="81">
@@ -1320,10 +1320,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.073566913604736</v>
+        <v>2.551734447479248</v>
       </c>
       <c r="C81" t="n">
-        <v>1.187429428100586</v>
+        <v>1.625492334365845</v>
       </c>
     </row>
     <row r="82">
@@ -1331,10 +1331,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.043542146682739</v>
+        <v>2.292241096496582</v>
       </c>
       <c r="C82" t="n">
-        <v>1.170180082321167</v>
+        <v>1.387743949890137</v>
       </c>
     </row>
     <row r="83">
@@ -1342,10 +1342,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.039056777954102</v>
+        <v>2.898247480392456</v>
       </c>
       <c r="C83" t="n">
-        <v>1.205899953842163</v>
+        <v>1.502165079116821</v>
       </c>
     </row>
     <row r="84">
@@ -1353,10 +1353,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.060797691345215</v>
+        <v>2.35270881652832</v>
       </c>
       <c r="C84" t="n">
-        <v>1.169762372970581</v>
+        <v>1.521732568740845</v>
       </c>
     </row>
     <row r="85">
@@ -1364,10 +1364,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.044703722000122</v>
+        <v>2.60975193977356</v>
       </c>
       <c r="C85" t="n">
-        <v>1.19481635093689</v>
+        <v>1.5698401927948</v>
       </c>
     </row>
     <row r="86">
@@ -1375,10 +1375,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.078224658966064</v>
+        <v>2.697741270065308</v>
       </c>
       <c r="C86" t="n">
-        <v>1.194851160049438</v>
+        <v>1.496859550476074</v>
       </c>
     </row>
     <row r="87">
@@ -1386,10 +1386,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.077728748321533</v>
+        <v>2.570059299468994</v>
       </c>
       <c r="C87" t="n">
-        <v>1.211561441421509</v>
+        <v>1.499813318252563</v>
       </c>
     </row>
     <row r="88">
@@ -1397,10 +1397,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.15558910369873</v>
+        <v>2.886717319488525</v>
       </c>
       <c r="C88" t="n">
-        <v>1.217499494552612</v>
+        <v>1.473030090332031</v>
       </c>
     </row>
     <row r="89">
@@ -1408,10 +1408,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.065520048141479</v>
+        <v>2.483308076858521</v>
       </c>
       <c r="C89" t="n">
-        <v>1.236861705780029</v>
+        <v>1.51444673538208</v>
       </c>
     </row>
     <row r="90">
@@ -1419,10 +1419,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.169655323028564</v>
+        <v>2.375585317611694</v>
       </c>
       <c r="C90" t="n">
-        <v>1.17087721824646</v>
+        <v>1.474630117416382</v>
       </c>
     </row>
     <row r="91">
@@ -1430,10 +1430,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.200750350952148</v>
+        <v>2.546174764633179</v>
       </c>
       <c r="C91" t="n">
-        <v>1.149089336395264</v>
+        <v>1.529547691345215</v>
       </c>
     </row>
     <row r="92">
@@ -1441,10 +1441,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.19001293182373</v>
+        <v>2.723608493804932</v>
       </c>
       <c r="C92" t="n">
-        <v>1.146692752838135</v>
+        <v>1.448956489562988</v>
       </c>
     </row>
     <row r="93">
@@ -1452,10 +1452,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.268050909042358</v>
+        <v>2.658513307571411</v>
       </c>
       <c r="C93" t="n">
-        <v>1.118520975112915</v>
+        <v>1.621508359909058</v>
       </c>
     </row>
     <row r="94">
@@ -1463,10 +1463,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.130313634872437</v>
+        <v>2.664038181304932</v>
       </c>
       <c r="C94" t="n">
-        <v>1.143095016479492</v>
+        <v>1.44745135307312</v>
       </c>
     </row>
     <row r="95">
@@ -1474,10 +1474,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.133671045303345</v>
+        <v>2.27500581741333</v>
       </c>
       <c r="C95" t="n">
-        <v>1.165411710739136</v>
+        <v>1.496267318725586</v>
       </c>
     </row>
     <row r="96">
@@ -1485,10 +1485,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.156045198440552</v>
+        <v>2.566413640975952</v>
       </c>
       <c r="C96" t="n">
-        <v>1.107767105102539</v>
+        <v>1.472248792648315</v>
       </c>
     </row>
     <row r="97">
@@ -1496,10 +1496,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.143163681030273</v>
+        <v>2.693390607833862</v>
       </c>
       <c r="C97" t="n">
-        <v>1.139759063720703</v>
+        <v>1.529965877532959</v>
       </c>
     </row>
     <row r="98">
@@ -1507,10 +1507,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.114431619644165</v>
+        <v>2.661758184432983</v>
       </c>
       <c r="C98" t="n">
-        <v>1.218019962310791</v>
+        <v>1.46606969833374</v>
       </c>
     </row>
     <row r="99">
@@ -1518,10 +1518,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.102059841156006</v>
+        <v>2.718589305877686</v>
       </c>
       <c r="C99" t="n">
-        <v>1.184360265731812</v>
+        <v>1.513834953308105</v>
       </c>
     </row>
     <row r="100">
@@ -1529,10 +1529,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.143369913101196</v>
+        <v>2.599592447280884</v>
       </c>
       <c r="C100" t="n">
-        <v>1.253803968429565</v>
+        <v>1.577531099319458</v>
       </c>
     </row>
     <row r="101">
@@ -1540,10 +1540,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.131804227828979</v>
+        <v>2.352813243865967</v>
       </c>
       <c r="C101" t="n">
-        <v>1.188111066818237</v>
+        <v>1.589942455291748</v>
       </c>
     </row>
   </sheetData>
